--- a/Mapeamento lote 03.xlsx
+++ b/Mapeamento lote 03.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28560" windowHeight="14130" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="455.2012" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="3819.2016" sheetId="4" r:id="rId4"/>
     <sheet name="7017.2016" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1818,8 +1818,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,27 +2029,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2080,8 +2065,29 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2101,34 +2107,38 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2136,23 +2146,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -14360,6 +14365,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -14394,6 +14400,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -14569,14 +14576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -14584,689 +14591,689 @@
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="49.5" customHeight="1">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="25" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A10" s="22" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="39" customHeight="1">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -15294,14 +15301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
@@ -15309,1093 +15316,1093 @@
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" ht="48" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="42">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="31.5">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="42">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="21">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="31.5">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="21">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="21">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="21">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="21">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="17" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="19" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="19" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="21">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="19" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="21">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="31.5">
-      <c r="A67" s="19" t="s">
+    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="19" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="21">
-      <c r="A70" s="17" t="s">
+    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="12" t="s">
         <v>271</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -16404,14 +16411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -16420,703 +16427,703 @@
     <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="38" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="17" t="s">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="19" t="s">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="A27" s="19" t="s">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="17" t="s">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="19" t="s">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="19" t="s">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="17" t="s">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="19" t="s">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1">
-      <c r="A36" s="17" t="s">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1">
-      <c r="A37" s="19" t="s">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1">
-      <c r="A38" s="17" t="s">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1">
-      <c r="A39" s="19" t="s">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1">
-      <c r="A41" s="19" t="s">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1">
-      <c r="A42" s="17" t="s">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1">
-      <c r="A43" s="19" t="s">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1">
-      <c r="A44" s="17" t="s">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1">
-      <c r="A45" s="19" t="s">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1">
-      <c r="A46" s="17" t="s">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17137,14 +17144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -17153,1109 +17160,1109 @@
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="38" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.5">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.5">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="42">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="12" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.5">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="12" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="42">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="42">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="42">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="42">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="12" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="14" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="12" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="52.5">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:5" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="14" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="21">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="21">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="12" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="21">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="14" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="12" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="14" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="31.5">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="12" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="14" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="31.5">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="12" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="21">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="12" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="21">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="12" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.5">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="14" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="52.5">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:5" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="12" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="14" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="21">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="21">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="12" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="21">
-      <c r="A60" s="17" t="s">
+    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="12" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="21">
-      <c r="A61" s="19" t="s">
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="14" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="21">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="52.5">
-      <c r="A63" s="19" t="s">
+    <row r="63" spans="1:5" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="14" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="42">
-      <c r="A64" s="17" t="s">
+    <row r="64" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="12" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="19" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="12" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="19" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="14" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="21">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="12" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="42">
-      <c r="A69" s="19" t="s">
+    <row r="69" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="14" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="17" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="21">
-      <c r="A71" s="19" t="s">
+    <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="14" t="s">
         <v>495</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -18264,14 +18271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
@@ -18279,683 +18286,684 @@
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="62.25" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>497</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="38" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>499</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="17" t="s">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="19" t="s">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="31.5">
-      <c r="A16" s="17" t="s">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="19" t="s">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="52.5">
-      <c r="A18" s="17" t="s">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="19" t="s">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="21">
-      <c r="A20" s="17" t="s">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="19" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="31.5">
-      <c r="A22" s="17" t="s">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="21">
-      <c r="A23" s="19" t="s">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="42">
-      <c r="A24" s="17" t="s">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="42" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="21">
-      <c r="A25" s="19" t="s">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="21">
-      <c r="A26" s="17" t="s">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="19" t="s">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17" t="s">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="19" t="s">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17" t="s">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="19" t="s">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="17" t="s">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="21">
-      <c r="A33" s="19" t="s">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="17" t="s">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="19" t="s">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="17" t="s">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="21">
-      <c r="A37" s="19" t="s">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="17" t="s">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="19" t="s">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="21">
-      <c r="A40" s="17" t="s">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="19" t="s">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="17" t="s">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="21">
-      <c r="A43" s="19" t="s">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A11:F11"/>
@@ -18963,7 +18971,6 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Mapeamento lote 03.xlsx
+++ b/Mapeamento lote 03.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Puc_Lean2016\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="3819.2016" sheetId="4" r:id="rId4"/>
     <sheet name="7017.2016" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="560">
   <si>
     <r>
       <t xml:space="preserve">Processo Nº: </t>
@@ -2148,7 +2153,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2157,6 +2162,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -14291,9 +14299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -14331,9 +14339,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14368,7 +14376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14403,7 +14411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14579,8 +14587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14639,7 +14647,9 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
@@ -16394,15 +16404,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Mapeamento lote 03.xlsx
+++ b/Mapeamento lote 03.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Puc_Lean2016\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="455.2012" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="3819.2016" sheetId="4" r:id="rId4"/>
     <sheet name="7017.2016" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2124,12 +2119,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2137,6 +2126,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2153,7 +2148,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14299,9 +14294,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -14339,9 +14334,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14376,7 +14371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14411,7 +14406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14587,7 +14582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18:E48"/>
     </sheetView>
   </sheetViews>
@@ -15314,8 +15309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15327,24 +15322,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -15356,13 +15351,13 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -15374,13 +15369,13 @@
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -15392,13 +15387,13 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -16404,15 +16399,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -16424,8 +16419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16470,13 +16465,13 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16491,12 +16486,12 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16550,13 +16545,13 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17157,8 +17152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17183,12 +17178,12 @@
       <c r="A2" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -17200,13 +17195,13 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -17219,12 +17214,12 @@
     </row>
     <row r="6" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -17236,13 +17231,13 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -18284,8 +18279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18309,12 +18304,12 @@
       <c r="A2" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -18328,13 +18323,13 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -18349,12 +18344,12 @@
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -18368,13 +18363,13 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
